--- a/biology/Botanique/Phyllodoce_empetriformis/Phyllodoce_empetriformis.xlsx
+++ b/biology/Botanique/Phyllodoce_empetriformis/Phyllodoce_empetriformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllodoce à feuilles de camarine
 Phyllodoce empetriformis, la Phyllodoce à feuilles de camarine, est une espèce de plantes à fleurs de la famille des Ericaceae. C'est un arbuste de petite taille présent dans les régions montagneuses de l'ouest de l'Amérique du Nord. Ses feuilles ont la particularité de s'enrouler autour d'elles-mêmes jusqu'à ressembler à des épines de sapins. Ses fleurs ont des colorations roses et mauves.
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Phyllodoce à feuilles de camarine est présente à l'ouest de l'Amérique du Nord de la Californie au sud jusqu'en Alaska en passant par l'État de Washington et dans les provinces canadiennes de Colombie-Britannique et de l'Alberta[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Phyllodoce à feuilles de camarine est présente à l'ouest de l'Amérique du Nord de la Californie au sud jusqu'en Alaska en passant par l'État de Washington et dans les provinces canadiennes de Colombie-Britannique et de l'Alberta.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Phyllodoce empetriformis (Sm.) D.Don. L'espèce a été initialement classée dans le genre Menziesia sous le basionyme Menziesia empetriformis Sm.[2].
-Ce taxon porte en français les noms vernaculaire ou normalisé « Phyllodoce à feuilles de camarine »[2].
-Phyllodoce empetriformis a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Phyllodoce empetriformis (Sm.) D.Don. L'espèce a été initialement classée dans le genre Menziesia sous le basionyme Menziesia empetriformis Sm..
+Ce taxon porte en français les noms vernaculaire ou normalisé « Phyllodoce à feuilles de camarine ».
+Phyllodoce empetriformis a pour synonymes :
 Bryanthus empetriformis (Sm.) A.Gray
 Menziesia empetriformis Sm.
 Menziesia grahamii Hook.
